--- a/Finflux Automation Excels/Client/4937-Mifos-EI-DB-SAR-Charges-preclose.xlsx
+++ b/Finflux Automation Excels/Client/4937-Mifos-EI-DB-SAR-Charges-preclose.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -46,9 +46,6 @@
     <t>ClickonPreclose</t>
   </si>
   <si>
-    <t>Foreclosuretransactiondate</t>
-  </si>
-  <si>
     <t>Submitbutton</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>Principal</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Interest(%)</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -143,13 +134,16 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,9 +160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -207,26 +211,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,16 +585,8 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>42090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -604,113 +598,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>262.7</v>
-      </c>
-      <c r="B3" s="6">
-        <v>170.58</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="3">
+        <v>276.27</v>
+      </c>
+      <c r="B3" s="3">
+        <v>184.15</v>
+      </c>
+      <c r="C3" s="3">
         <v>92.12</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>15.84</v>
-      </c>
-      <c r="B4" s="6">
-        <v>15.84</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="B4" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="B5" s="6">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -724,7 +719,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,96 +732,93 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>14</v>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6">
         <v>10000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>31</v>
       </c>
       <c r="C3" s="8">
@@ -835,47 +827,47 @@
       <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
+      <c r="E3" s="9"/>
+      <c r="F3" s="3">
         <v>788.49</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>9211.51</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>7.88</v>
       </c>
-      <c r="J3" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="K3" s="6">
-        <v>905.25</v>
-      </c>
-      <c r="L3" s="6">
-        <v>905.25</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>896.37</v>
+      </c>
+      <c r="L3" s="3">
+        <v>896.37</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>28</v>
       </c>
       <c r="C4" s="8">
@@ -884,88 +876,88 @@
       <c r="D4" s="8">
         <v>42064</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="E4" s="9"/>
+      <c r="F4" s="3">
         <v>796.37</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>8415.14</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>92.12</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>7.96</v>
       </c>
-      <c r="J4" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="K4" s="6">
-        <v>905.33</v>
-      </c>
-      <c r="L4" s="6">
-        <v>813.21</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>896.45</v>
+      </c>
+      <c r="L4" s="3">
+        <v>804.33</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>92.12</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>26</v>
+      <c r="B5" s="3">
+        <v>31</v>
       </c>
       <c r="C5" s="8">
-        <v>42090</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="8">
-        <v>42090</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7">
         <v>8415.14</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>70.58</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8485.7199999999993</v>
-      </c>
-      <c r="L5" s="9">
-        <v>8485.7199999999993</v>
-      </c>
-      <c r="M5" s="6">
-        <v>574.79</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>84.15</v>
+      </c>
+      <c r="I5" s="3">
+        <v>84.15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>8583.44</v>
+      </c>
+      <c r="L5" s="7">
+        <v>8583.44</v>
+      </c>
+      <c r="M5" s="3">
+        <v>583.66999999999996</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -976,10 +968,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,197 +986,209 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>512</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>157</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8">
-        <v>42090</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="9">
-        <v>7910.93</v>
-      </c>
-      <c r="F2" s="9">
-        <v>7910.93</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>158</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
+      <c r="E2" s="7">
+        <v>7999.77</v>
+      </c>
+      <c r="F2" s="7">
+        <v>7999.77</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>513</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="8">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6">
         <v>1388</v>
       </c>
-      <c r="F3" s="9">
-        <v>1300.58</v>
-      </c>
-      <c r="G3" s="6">
-        <v>70.58</v>
-      </c>
-      <c r="H3" s="6">
-        <v>7.96</v>
-      </c>
-      <c r="I3" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="J3" s="9">
-        <v>7910.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>155</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
+      <c r="F3" s="7">
+        <v>1211.74</v>
+      </c>
+      <c r="G3" s="3">
+        <v>84.15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>92.11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7999.77</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>510</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="8">
         <v>42050</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
         <v>92.12</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>92.12</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>9211.51</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>154</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>509</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="8">
         <v>42036</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6">
-        <v>905.25</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>896.37</v>
+      </c>
+      <c r="F5" s="3">
         <v>788.49</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>7.88</v>
       </c>
-      <c r="I5" s="6">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>9211.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>149</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>506</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="8">
         <v>42005</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>10000</v>
       </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
